--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Discount Code</t>
   </si>
@@ -31,33 +31,81 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>DZ65</t>
+  </si>
+  <si>
+    <t>MB493466</t>
+  </si>
+  <si>
     <t>DZCT</t>
   </si>
   <si>
+    <t>MB493162</t>
+  </si>
+  <si>
+    <t>MB492884</t>
+  </si>
+  <si>
+    <t>DZZ2</t>
+  </si>
+  <si>
+    <t>MB491923</t>
+  </si>
+  <si>
+    <t>MB492968</t>
+  </si>
+  <si>
+    <t>MB491721</t>
+  </si>
+  <si>
+    <t>MB491606</t>
+  </si>
+  <si>
+    <t>MB490643</t>
+  </si>
+  <si>
+    <t>MB489754</t>
+  </si>
+  <si>
+    <t>MB490199</t>
+  </si>
+  <si>
+    <t>MB489648</t>
+  </si>
+  <si>
+    <t>MB489618</t>
+  </si>
+  <si>
+    <t>MB488679</t>
+  </si>
+  <si>
+    <t>MB489154</t>
+  </si>
+  <si>
+    <t>MB489048</t>
+  </si>
+  <si>
+    <t>MB487316</t>
+  </si>
+  <si>
     <t>MB487207</t>
   </si>
   <si>
-    <t>DZZ2</t>
+    <t>MB487512</t>
   </si>
   <si>
     <t>MB487787</t>
   </si>
   <si>
-    <t>MB487512</t>
-  </si>
-  <si>
-    <t>MB487316</t>
+    <t>MB486670</t>
+  </si>
+  <si>
+    <t>MB486945</t>
   </si>
   <si>
     <t>MB486701</t>
   </si>
   <si>
-    <t>MB486670</t>
-  </si>
-  <si>
-    <t>MB486945</t>
-  </si>
-  <si>
     <t>MB486223</t>
   </si>
   <si>
@@ -76,18 +124,18 @@
     <t>MB484178</t>
   </si>
   <si>
+    <t>DZ77</t>
+  </si>
+  <si>
+    <t>MB482234</t>
+  </si>
+  <si>
+    <t>MB482292</t>
+  </si>
+  <si>
     <t>MB482319</t>
   </si>
   <si>
-    <t>DZ77</t>
-  </si>
-  <si>
-    <t>MB482234</t>
-  </si>
-  <si>
-    <t>MB482292</t>
-  </si>
-  <si>
     <t>MB481818</t>
   </si>
   <si>
@@ -97,61 +145,34 @@
     <t>MB481156</t>
   </si>
   <si>
+    <t>MB480838</t>
+  </si>
+  <si>
+    <t>MB480981</t>
+  </si>
+  <si>
     <t>MB480856</t>
   </si>
   <si>
-    <t>DZ65</t>
-  </si>
-  <si>
-    <t>MB480838</t>
-  </si>
-  <si>
-    <t>MB480981</t>
-  </si>
-  <si>
     <t>MB480389</t>
   </si>
   <si>
     <t>MB479700</t>
   </si>
   <si>
+    <t>MB479499</t>
+  </si>
+  <si>
     <t>MB479337</t>
   </si>
   <si>
     <t>MB479273</t>
   </si>
   <si>
-    <t>MB479499</t>
-  </si>
-  <si>
     <t>MB479458</t>
   </si>
   <si>
     <t>MB478755</t>
-  </si>
-  <si>
-    <t>MB478091</t>
-  </si>
-  <si>
-    <t>MB477788</t>
-  </si>
-  <si>
-    <t>MB477997</t>
-  </si>
-  <si>
-    <t>MB477408</t>
-  </si>
-  <si>
-    <t>MB477219</t>
-  </si>
-  <si>
-    <t>MB477106</t>
-  </si>
-  <si>
-    <t>MB476915</t>
-  </si>
-  <si>
-    <t>MB477051</t>
   </si>
 </sst>
 </file>
@@ -441,10 +462,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="E2" s="3">
-        <v>13937.18</v>
+        <v>15870.38</v>
       </c>
     </row>
     <row r="3">
@@ -455,13 +476,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45926.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>343.8</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="4">
@@ -472,81 +493,81 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>45926.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <v>343.8</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>45926.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>172.8</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>45926.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
       </c>
       <c r="E6" s="3">
-        <v>611.1</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>45925.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>351.9</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>45925.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>494.1</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="9">
@@ -554,27 +575,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>45925.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>267.3</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45924.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
@@ -585,19 +606,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>45923.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>343.8</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="12">
@@ -605,44 +626,44 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>45922.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
       </c>
       <c r="E12" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>45921.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>178.2</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>45921.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
@@ -653,30 +674,30 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>45920.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>437.4</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>45915.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
@@ -687,19 +708,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>45915.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
       </c>
       <c r="E17" s="3">
-        <v>437.4</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="18">
@@ -710,13 +731,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>45915.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
       </c>
       <c r="E18" s="3">
-        <v>687.6</v>
+        <v>611.1</v>
       </c>
     </row>
     <row r="19">
@@ -727,41 +748,41 @@
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>45914.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>45912.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>343.8</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>45912.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
@@ -772,36 +793,36 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>45911.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D22" s="3">
         <v>1.0</v>
       </c>
       <c r="E22" s="3">
-        <v>1081.8</v>
+        <v>494.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C23" s="2">
-        <v>45911.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>398.7</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="24">
@@ -809,50 +830,50 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
-        <v>45911.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
       <c r="E24" s="3">
-        <v>267.3</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
-        <v>45909.0</v>
+        <v>45924.0</v>
       </c>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>267.3</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
-        <v>45907.0</v>
+        <v>45923.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
       </c>
       <c r="E26" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +881,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
-        <v>45906.0</v>
+        <v>45922.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
@@ -874,115 +895,115 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
-        <v>45906.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>267.3</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>45906.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>270.9</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2">
-        <v>45906.0</v>
+        <v>45920.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
       </c>
       <c r="E30" s="3">
-        <v>563.18</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="2">
-        <v>45904.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>495.0</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="2">
-        <v>45902.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>319.5</v>
+        <v>687.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2">
-        <v>45902.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
       </c>
       <c r="E33" s="3">
-        <v>826.2</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="2">
-        <v>45902.0</v>
+        <v>45914.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
@@ -993,137 +1014,207 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="2">
-        <v>45900.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>45899.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>297.0</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="2">
-        <v>45899.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D37" s="3">
         <v>1.0</v>
       </c>
       <c r="E37" s="3">
-        <v>297.0</v>
+        <v>398.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>45898.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D38" s="3">
         <v>1.0</v>
       </c>
       <c r="E38" s="3">
-        <v>297.0</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="2">
-        <v>45898.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D39" s="3">
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>623.7</v>
+        <v>1081.8</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45909.0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>267.3</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45907.0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>267.3</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45906.0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>270.9</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45906.0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>267.3</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45906.0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>267.3</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45906.0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>563.18</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45904.0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>495.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1"/>

--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Discount Code</t>
   </si>
@@ -31,24 +31,36 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>DZZ2</t>
+  </si>
+  <si>
+    <t>MB494715</t>
+  </si>
+  <si>
+    <t>MB494491</t>
+  </si>
+  <si>
+    <t>MB494422</t>
+  </si>
+  <si>
+    <t>DZCT</t>
+  </si>
+  <si>
+    <t>MB494311</t>
+  </si>
+  <si>
+    <t>MB493162</t>
+  </si>
+  <si>
     <t>DZ65</t>
   </si>
   <si>
     <t>MB493466</t>
   </si>
   <si>
-    <t>DZCT</t>
-  </si>
-  <si>
-    <t>MB493162</t>
-  </si>
-  <si>
     <t>MB492884</t>
   </si>
   <si>
-    <t>DZZ2</t>
-  </si>
-  <si>
     <t>MB491923</t>
   </si>
   <si>
@@ -64,16 +76,19 @@
     <t>MB490643</t>
   </si>
   <si>
+    <t>MB489618</t>
+  </si>
+  <si>
+    <t>MB489648</t>
+  </si>
+  <si>
     <t>MB489754</t>
   </si>
   <si>
     <t>MB490199</t>
   </si>
   <si>
-    <t>MB489648</t>
-  </si>
-  <si>
-    <t>MB489618</t>
+    <t>MB489048</t>
   </si>
   <si>
     <t>MB488679</t>
@@ -82,7 +97,10 @@
     <t>MB489154</t>
   </si>
   <si>
-    <t>MB489048</t>
+    <t>MB487512</t>
+  </si>
+  <si>
+    <t>MB487787</t>
   </si>
   <si>
     <t>MB487316</t>
@@ -91,21 +109,15 @@
     <t>MB487207</t>
   </si>
   <si>
-    <t>MB487512</t>
-  </si>
-  <si>
-    <t>MB487787</t>
+    <t>MB486945</t>
+  </si>
+  <si>
+    <t>MB486701</t>
   </si>
   <si>
     <t>MB486670</t>
   </si>
   <si>
-    <t>MB486945</t>
-  </si>
-  <si>
-    <t>MB486701</t>
-  </si>
-  <si>
     <t>MB486223</t>
   </si>
   <si>
@@ -124,25 +136,28 @@
     <t>MB484178</t>
   </si>
   <si>
+    <t>MB482319</t>
+  </si>
+  <si>
+    <t>MB482292</t>
+  </si>
+  <si>
     <t>DZ77</t>
   </si>
   <si>
     <t>MB482234</t>
   </si>
   <si>
-    <t>MB482292</t>
-  </si>
-  <si>
-    <t>MB482319</t>
-  </si>
-  <si>
     <t>MB481818</t>
   </si>
   <si>
+    <t>MB481156</t>
+  </si>
+  <si>
     <t>MB481115</t>
   </si>
   <si>
-    <t>MB481156</t>
+    <t>MB480856</t>
   </si>
   <si>
     <t>MB480838</t>
@@ -151,28 +166,22 @@
     <t>MB480981</t>
   </si>
   <si>
-    <t>MB480856</t>
-  </si>
-  <si>
     <t>MB480389</t>
   </si>
   <si>
     <t>MB479700</t>
   </si>
   <si>
+    <t>MB479337</t>
+  </si>
+  <si>
+    <t>MB479458</t>
+  </si>
+  <si>
+    <t>MB479273</t>
+  </si>
+  <si>
     <t>MB479499</t>
-  </si>
-  <si>
-    <t>MB479337</t>
-  </si>
-  <si>
-    <t>MB479273</t>
-  </si>
-  <si>
-    <t>MB479458</t>
-  </si>
-  <si>
-    <t>MB478755</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="E2" s="3">
-        <v>15870.38</v>
+        <v>16796.48</v>
       </c>
     </row>
     <row r="3">
@@ -476,30 +485,30 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45933.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>246.6</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2">
-        <v>45933.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <v>424.8</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="5">
@@ -507,486 +516,486 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45932.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>424.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="2">
-        <v>45932.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
       </c>
       <c r="E6" s="3">
-        <v>267.3</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>437.4</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>45931.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>267.3</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>441.0</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45930.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>170.1</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>45929.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>522.0</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
       </c>
       <c r="E12" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>437.4</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>45929.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>267.3</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
       </c>
       <c r="E16" s="3">
-        <v>267.3</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
       </c>
       <c r="E17" s="3">
-        <v>267.3</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>45926.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
       </c>
       <c r="E18" s="3">
-        <v>611.1</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>172.8</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
       <c r="E21" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D22" s="3">
         <v>1.0</v>
       </c>
       <c r="E22" s="3">
-        <v>494.1</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
       <c r="E24" s="3">
-        <v>351.9</v>
+        <v>611.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="2">
-        <v>45924.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>170.1</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="2">
-        <v>45923.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
       </c>
       <c r="E26" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="2">
-        <v>45922.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
       <c r="E27" s="3">
-        <v>267.3</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="2">
-        <v>45921.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>178.2</v>
+        <v>494.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>45921.0</v>
+        <v>45924.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>267.3</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="2">
-        <v>45920.0</v>
+        <v>45923.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
       </c>
       <c r="E30" s="3">
-        <v>437.4</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C31" s="2">
-        <v>45915.0</v>
+        <v>45922.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>437.4</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>45915.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>687.6</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2">
-        <v>45915.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
@@ -997,81 +1006,81 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2">
-        <v>45914.0</v>
+        <v>45920.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>267.3</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2">
-        <v>45912.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2">
-        <v>45912.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>343.8</v>
+        <v>687.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="2">
-        <v>45911.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D37" s="3">
         <v>1.0</v>
       </c>
       <c r="E37" s="3">
-        <v>398.7</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>45911.0</v>
+        <v>45914.0</v>
       </c>
       <c r="D38" s="3">
         <v>1.0</v>
@@ -1082,81 +1091,81 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="2">
-        <v>45911.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D39" s="3">
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>1081.8</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="2">
-        <v>45909.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
       <c r="E40" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="2">
-        <v>45907.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D41" s="3">
         <v>1.0</v>
       </c>
       <c r="E41" s="3">
-        <v>267.3</v>
+        <v>1081.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="2">
-        <v>45906.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
       <c r="E42" s="3">
-        <v>270.9</v>
+        <v>398.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2">
-        <v>45906.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D43" s="3">
         <v>1.0</v>
@@ -1167,13 +1176,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="2">
-        <v>45906.0</v>
+        <v>45909.0</v>
       </c>
       <c r="D44" s="3">
         <v>1.0</v>
@@ -1184,58 +1193,88 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="2">
-        <v>45906.0</v>
+        <v>45907.0</v>
       </c>
       <c r="D45" s="3">
         <v>1.0</v>
       </c>
       <c r="E45" s="3">
-        <v>563.18</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="2">
-        <v>45904.0</v>
+        <v>45906.0</v>
       </c>
       <c r="D46" s="3">
         <v>1.0</v>
       </c>
       <c r="E46" s="3">
-        <v>495.0</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45906.0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>563.18</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45906.0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>267.3</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45906.0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>270.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1"/>

--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -40,15 +40,21 @@
     <t>MB494491</t>
   </si>
   <si>
+    <t>MB494936</t>
+  </si>
+  <si>
+    <t>MB495050</t>
+  </si>
+  <si>
+    <t>DZCT</t>
+  </si>
+  <si>
+    <t>MB494311</t>
+  </si>
+  <si>
     <t>MB494422</t>
   </si>
   <si>
-    <t>DZCT</t>
-  </si>
-  <si>
-    <t>MB494311</t>
-  </si>
-  <si>
     <t>MB493162</t>
   </si>
   <si>
@@ -67,27 +73,27 @@
     <t>MB492968</t>
   </si>
   <si>
+    <t>MB491606</t>
+  </si>
+  <si>
     <t>MB491721</t>
   </si>
   <si>
-    <t>MB491606</t>
-  </si>
-  <si>
     <t>MB490643</t>
   </si>
   <si>
+    <t>MB489648</t>
+  </si>
+  <si>
+    <t>MB490199</t>
+  </si>
+  <si>
+    <t>MB489754</t>
+  </si>
+  <si>
     <t>MB489618</t>
   </si>
   <si>
-    <t>MB489648</t>
-  </si>
-  <si>
-    <t>MB489754</t>
-  </si>
-  <si>
-    <t>MB490199</t>
-  </si>
-  <si>
     <t>MB489048</t>
   </si>
   <si>
@@ -97,15 +103,15 @@
     <t>MB489154</t>
   </si>
   <si>
+    <t>MB487316</t>
+  </si>
+  <si>
     <t>MB487512</t>
   </si>
   <si>
     <t>MB487787</t>
   </si>
   <si>
-    <t>MB487316</t>
-  </si>
-  <si>
     <t>MB487207</t>
   </si>
   <si>
@@ -127,61 +133,55 @@
     <t>MB484984</t>
   </si>
   <si>
+    <t>MB484651</t>
+  </si>
+  <si>
     <t>MB484513</t>
   </si>
   <si>
-    <t>MB484651</t>
-  </si>
-  <si>
     <t>MB484178</t>
   </si>
   <si>
+    <t>DZ77</t>
+  </si>
+  <si>
+    <t>MB482234</t>
+  </si>
+  <si>
     <t>MB482319</t>
   </si>
   <si>
     <t>MB482292</t>
   </si>
   <si>
-    <t>DZ77</t>
-  </si>
-  <si>
-    <t>MB482234</t>
-  </si>
-  <si>
     <t>MB481818</t>
   </si>
   <si>
+    <t>MB481115</t>
+  </si>
+  <si>
     <t>MB481156</t>
   </si>
   <si>
-    <t>MB481115</t>
+    <t>MB480838</t>
+  </si>
+  <si>
+    <t>MB480981</t>
   </si>
   <si>
     <t>MB480856</t>
   </si>
   <si>
-    <t>MB480838</t>
-  </si>
-  <si>
-    <t>MB480981</t>
-  </si>
-  <si>
     <t>MB480389</t>
   </si>
   <si>
     <t>MB479700</t>
   </si>
   <si>
-    <t>MB479337</t>
+    <t>MB479499</t>
   </si>
   <si>
     <t>MB479458</t>
-  </si>
-  <si>
-    <t>MB479273</t>
-  </si>
-  <si>
-    <t>MB479499</t>
   </si>
 </sst>
 </file>
@@ -471,10 +471,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="E2" s="3">
-        <v>16796.48</v>
+        <v>17460.68</v>
       </c>
     </row>
     <row r="3">
@@ -519,75 +519,75 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>267.3</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D6" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="3">
-        <v>534.6</v>
+        <v>703.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>424.8</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="2">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>246.6</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D9" s="3">
         <v>1.0</v>
@@ -598,24 +598,24 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>267.3</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -627,18 +627,18 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>437.4</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
@@ -649,47 +649,47 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>441.0</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>45930.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>170.1</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
@@ -706,18 +706,18 @@
         <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>45929.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
       </c>
       <c r="E16" s="3">
-        <v>437.4</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -729,12 +729,12 @@
         <v>1.0</v>
       </c>
       <c r="E17" s="3">
-        <v>522.0</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
@@ -751,19 +751,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>267.3</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="20">
@@ -774,18 +774,18 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
@@ -808,13 +808,13 @@
         <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D22" s="3">
         <v>1.0</v>
       </c>
       <c r="E22" s="3">
-        <v>172.8</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="23">
@@ -825,18 +825,18 @@
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
@@ -865,7 +865,7 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>343.8</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="26">
@@ -876,35 +876,35 @@
         <v>32</v>
       </c>
       <c r="C26" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
       </c>
       <c r="E26" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
       <c r="E27" s="3">
-        <v>351.9</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
@@ -916,86 +916,86 @@
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>494.1</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>45924.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>170.1</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="2">
-        <v>45923.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
       </c>
       <c r="E30" s="3">
-        <v>343.8</v>
+        <v>494.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="2">
-        <v>45922.0</v>
+        <v>45924.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>267.3</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>45921.0</v>
+        <v>45923.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>178.2</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="2">
-        <v>45921.0</v>
+        <v>45922.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
@@ -1006,19 +1006,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="2">
-        <v>45920.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>437.4</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="35">
@@ -1029,30 +1029,30 @@
         <v>41</v>
       </c>
       <c r="C35" s="2">
-        <v>45915.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>267.3</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="2">
-        <v>45915.0</v>
+        <v>45920.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>687.6</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="37">
@@ -1080,7 +1080,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>45914.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D38" s="3">
         <v>1.0</v>
@@ -1097,13 +1097,13 @@
         <v>46</v>
       </c>
       <c r="C39" s="2">
-        <v>45912.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D39" s="3">
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>343.8</v>
+        <v>687.6</v>
       </c>
     </row>
     <row r="40">
@@ -1114,52 +1114,52 @@
         <v>47</v>
       </c>
       <c r="C40" s="2">
-        <v>45912.0</v>
+        <v>45914.0</v>
       </c>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
       <c r="E40" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="2">
-        <v>45911.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D41" s="3">
         <v>1.0</v>
       </c>
       <c r="E41" s="3">
-        <v>1081.8</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="2">
-        <v>45911.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
       <c r="E42" s="3">
-        <v>398.7</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
@@ -1171,18 +1171,18 @@
         <v>1.0</v>
       </c>
       <c r="E43" s="3">
-        <v>267.3</v>
+        <v>398.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="2">
-        <v>45909.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D44" s="3">
         <v>1.0</v>
@@ -1193,30 +1193,30 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="2">
-        <v>45907.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D45" s="3">
         <v>1.0</v>
       </c>
       <c r="E45" s="3">
-        <v>267.3</v>
+        <v>1081.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="2">
-        <v>45906.0</v>
+        <v>45909.0</v>
       </c>
       <c r="D46" s="3">
         <v>1.0</v>
@@ -1227,24 +1227,24 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="2">
-        <v>45906.0</v>
+        <v>45907.0</v>
       </c>
       <c r="D47" s="3">
         <v>1.0</v>
       </c>
       <c r="E47" s="3">
-        <v>563.18</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
@@ -1256,12 +1256,12 @@
         <v>1.0</v>
       </c>
       <c r="E48" s="3">
-        <v>267.3</v>
+        <v>270.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
@@ -1273,7 +1273,7 @@
         <v>1.0</v>
       </c>
       <c r="E49" s="3">
-        <v>270.9</v>
+        <v>563.18</v>
       </c>
     </row>
     <row r="50">

--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>Discount Code</t>
   </si>
@@ -31,37 +31,55 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>DZ65</t>
+  </si>
+  <si>
+    <t>MB495647</t>
+  </si>
+  <si>
+    <t>DZ77</t>
+  </si>
+  <si>
+    <t>MB495599</t>
+  </si>
+  <si>
+    <t>DZCT</t>
+  </si>
+  <si>
+    <t>MB495517</t>
+  </si>
+  <si>
+    <t>MB495453</t>
+  </si>
+  <si>
     <t>DZZ2</t>
   </si>
   <si>
+    <t>MB494936</t>
+  </si>
+  <si>
+    <t>MB494491</t>
+  </si>
+  <si>
+    <t>MB495050</t>
+  </si>
+  <si>
     <t>MB494715</t>
   </si>
   <si>
-    <t>MB494491</t>
-  </si>
-  <si>
-    <t>MB494936</t>
-  </si>
-  <si>
-    <t>MB495050</t>
-  </si>
-  <si>
-    <t>DZCT</t>
+    <t>MB494422</t>
   </si>
   <si>
     <t>MB494311</t>
   </si>
   <si>
-    <t>MB494422</t>
+    <t>MB493466</t>
   </si>
   <si>
     <t>MB493162</t>
   </si>
   <si>
-    <t>DZ65</t>
-  </si>
-  <si>
-    <t>MB493466</t>
+    <t>MB492968</t>
   </si>
   <si>
     <t>MB492884</t>
@@ -70,9 +88,6 @@
     <t>MB491923</t>
   </si>
   <si>
-    <t>MB492968</t>
-  </si>
-  <si>
     <t>MB491606</t>
   </si>
   <si>
@@ -82,15 +97,15 @@
     <t>MB490643</t>
   </si>
   <si>
+    <t>MB489754</t>
+  </si>
+  <si>
+    <t>MB490199</t>
+  </si>
+  <si>
     <t>MB489648</t>
   </si>
   <si>
-    <t>MB490199</t>
-  </si>
-  <si>
-    <t>MB489754</t>
-  </si>
-  <si>
     <t>MB489618</t>
   </si>
   <si>
@@ -118,12 +133,12 @@
     <t>MB486945</t>
   </si>
   <si>
+    <t>MB486670</t>
+  </si>
+  <si>
     <t>MB486701</t>
   </si>
   <si>
-    <t>MB486670</t>
-  </si>
-  <si>
     <t>MB486223</t>
   </si>
   <si>
@@ -142,9 +157,6 @@
     <t>MB484178</t>
   </si>
   <si>
-    <t>DZ77</t>
-  </si>
-  <si>
     <t>MB482234</t>
   </si>
   <si>
@@ -166,22 +178,13 @@
     <t>MB480838</t>
   </si>
   <si>
+    <t>MB480856</t>
+  </si>
+  <si>
     <t>MB480981</t>
   </si>
   <si>
-    <t>MB480856</t>
-  </si>
-  <si>
     <t>MB480389</t>
-  </si>
-  <si>
-    <t>MB479700</t>
-  </si>
-  <si>
-    <t>MB479499</t>
-  </si>
-  <si>
-    <t>MB479458</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="E2" s="3">
-        <v>17460.68</v>
+        <v>17945.1</v>
       </c>
     </row>
     <row r="3">
@@ -485,47 +488,47 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>267.3</v>
+        <v>636.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <v>351.9</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>495.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="6">
@@ -533,169 +536,169 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>45935.0</v>
+        <v>45936.0</v>
       </c>
       <c r="D6" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" s="3">
-        <v>703.8</v>
+        <v>269.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>534.6</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>267.3</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45933.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D9" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" s="3">
-        <v>424.8</v>
+        <v>703.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>45933.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>246.6</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>45932.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>424.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>45932.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
       </c>
       <c r="E12" s="3">
-        <v>267.3</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>437.4</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>45931.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>441.0</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>267.3</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="16">
@@ -703,101 +706,101 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>45930.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
       </c>
       <c r="E16" s="3">
-        <v>170.1</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>45929.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
       </c>
       <c r="E17" s="3">
-        <v>437.4</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
       </c>
       <c r="E18" s="3">
-        <v>343.8</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>522.0</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>45929.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>267.3</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
       <c r="E21" s="3">
-        <v>267.3</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="22">
@@ -805,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D22" s="3">
         <v>1.0</v>
@@ -819,64 +822,64 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>267.3</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2">
-        <v>45926.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
       <c r="E24" s="3">
-        <v>611.1</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>172.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
@@ -887,200 +890,200 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
       <c r="E27" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>267.3</v>
+        <v>611.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>351.9</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
       </c>
       <c r="E30" s="3">
-        <v>494.1</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
-        <v>45924.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>170.1</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
-        <v>45923.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
-        <v>45922.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
       </c>
       <c r="E33" s="3">
-        <v>267.3</v>
+        <v>494.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
-        <v>45921.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>267.3</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
-        <v>45921.0</v>
+        <v>45924.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>178.2</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>45920.0</v>
+        <v>45923.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>437.4</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="2">
-        <v>45915.0</v>
+        <v>45922.0</v>
       </c>
       <c r="D37" s="3">
         <v>1.0</v>
       </c>
       <c r="E37" s="3">
-        <v>437.4</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>45915.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D38" s="3">
         <v>1.0</v>
@@ -1091,98 +1094,98 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="2">
-        <v>45915.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D39" s="3">
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>687.6</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="2">
-        <v>45914.0</v>
+        <v>45920.0</v>
       </c>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
       <c r="E40" s="3">
-        <v>267.3</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="2">
-        <v>45912.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D41" s="3">
         <v>1.0</v>
       </c>
       <c r="E41" s="3">
-        <v>343.8</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="2">
-        <v>45912.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
       <c r="E42" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2">
-        <v>45911.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D43" s="3">
         <v>1.0</v>
       </c>
       <c r="E43" s="3">
-        <v>398.7</v>
+        <v>687.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="2">
-        <v>45911.0</v>
+        <v>45914.0</v>
       </c>
       <c r="D44" s="3">
         <v>1.0</v>
@@ -1193,95 +1196,105 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="2">
-        <v>45911.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D45" s="3">
         <v>1.0</v>
       </c>
       <c r="E45" s="3">
-        <v>1081.8</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="2">
-        <v>45909.0</v>
+        <v>45912.0</v>
       </c>
       <c r="D46" s="3">
         <v>1.0</v>
       </c>
       <c r="E46" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="2">
-        <v>45907.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D47" s="3">
         <v>1.0</v>
       </c>
       <c r="E47" s="3">
-        <v>267.3</v>
+        <v>398.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="2">
-        <v>45906.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D48" s="3">
         <v>1.0</v>
       </c>
       <c r="E48" s="3">
-        <v>270.9</v>
+        <v>1081.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="2">
-        <v>45906.0</v>
+        <v>45911.0</v>
       </c>
       <c r="D49" s="3">
         <v>1.0</v>
       </c>
       <c r="E49" s="3">
-        <v>563.18</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45909.0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>267.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1"/>

--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>Discount Code</t>
   </si>
@@ -31,63 +31,78 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>DZCT</t>
+  </si>
+  <si>
+    <t>MB496572</t>
+  </si>
+  <si>
+    <t>MB496514</t>
+  </si>
+  <si>
+    <t>DZ77</t>
+  </si>
+  <si>
+    <t>MB496481</t>
+  </si>
+  <si>
+    <t>DZZ2</t>
+  </si>
+  <si>
+    <t>MB496052</t>
+  </si>
+  <si>
+    <t>MB496037</t>
+  </si>
+  <si>
+    <t>MB495517</t>
+  </si>
+  <si>
     <t>DZ65</t>
   </si>
   <si>
     <t>MB495647</t>
   </si>
   <si>
-    <t>DZ77</t>
-  </si>
-  <si>
     <t>MB495599</t>
   </si>
   <si>
-    <t>DZCT</t>
-  </si>
-  <si>
-    <t>MB495517</t>
-  </si>
-  <si>
     <t>MB495453</t>
   </si>
   <si>
-    <t>DZZ2</t>
+    <t>MB495050</t>
+  </si>
+  <si>
+    <t>MB494715</t>
+  </si>
+  <si>
+    <t>MB494491</t>
   </si>
   <si>
     <t>MB494936</t>
   </si>
   <si>
-    <t>MB494491</t>
-  </si>
-  <si>
-    <t>MB495050</t>
-  </si>
-  <si>
-    <t>MB494715</t>
+    <t>MB494311</t>
   </si>
   <si>
     <t>MB494422</t>
   </si>
   <si>
-    <t>MB494311</t>
-  </si>
-  <si>
     <t>MB493466</t>
   </si>
   <si>
     <t>MB493162</t>
   </si>
   <si>
+    <t>MB492884</t>
+  </si>
+  <si>
+    <t>MB491923</t>
+  </si>
+  <si>
     <t>MB492968</t>
   </si>
   <si>
-    <t>MB492884</t>
-  </si>
-  <si>
-    <t>MB491923</t>
-  </si>
-  <si>
     <t>MB491606</t>
   </si>
   <si>
@@ -97,18 +112,18 @@
     <t>MB490643</t>
   </si>
   <si>
+    <t>MB489648</t>
+  </si>
+  <si>
+    <t>MB489618</t>
+  </si>
+  <si>
     <t>MB489754</t>
   </si>
   <si>
     <t>MB490199</t>
   </si>
   <si>
-    <t>MB489648</t>
-  </si>
-  <si>
-    <t>MB489618</t>
-  </si>
-  <si>
     <t>MB489048</t>
   </si>
   <si>
@@ -118,27 +133,27 @@
     <t>MB489154</t>
   </si>
   <si>
+    <t>MB487787</t>
+  </si>
+  <si>
     <t>MB487316</t>
   </si>
   <si>
+    <t>MB487207</t>
+  </si>
+  <si>
     <t>MB487512</t>
   </si>
   <si>
-    <t>MB487787</t>
-  </si>
-  <si>
-    <t>MB487207</t>
-  </si>
-  <si>
     <t>MB486945</t>
   </si>
   <si>
+    <t>MB486701</t>
+  </si>
+  <si>
     <t>MB486670</t>
   </si>
   <si>
-    <t>MB486701</t>
-  </si>
-  <si>
     <t>MB486223</t>
   </si>
   <si>
@@ -148,43 +163,25 @@
     <t>MB484984</t>
   </si>
   <si>
+    <t>MB484513</t>
+  </si>
+  <si>
     <t>MB484651</t>
   </si>
   <si>
-    <t>MB484513</t>
-  </si>
-  <si>
     <t>MB484178</t>
   </si>
   <si>
+    <t>MB482292</t>
+  </si>
+  <si>
+    <t>MB482319</t>
+  </si>
+  <si>
     <t>MB482234</t>
   </si>
   <si>
-    <t>MB482319</t>
-  </si>
-  <si>
-    <t>MB482292</t>
-  </si>
-  <si>
     <t>MB481818</t>
-  </si>
-  <si>
-    <t>MB481115</t>
-  </si>
-  <si>
-    <t>MB481156</t>
-  </si>
-  <si>
-    <t>MB480838</t>
-  </si>
-  <si>
-    <t>MB480856</t>
-  </si>
-  <si>
-    <t>MB480981</t>
-  </si>
-  <si>
-    <t>MB480389</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="E2" s="3">
-        <v>17945.1</v>
+        <v>16897.68</v>
       </c>
     </row>
     <row r="3">
@@ -488,217 +485,217 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45937.0</v>
+        <v>45942.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>636.3</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2">
-        <v>45937.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <v>194.4</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="2">
-        <v>45937.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>486.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>45936.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
       </c>
       <c r="E6" s="3">
-        <v>269.1</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="2">
-        <v>45935.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>495.0</v>
+        <v>381.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>351.9</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D9" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>703.8</v>
+        <v>636.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>267.3</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>45934.0</v>
+        <v>45936.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>267.3</v>
+        <v>269.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D12" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" s="3">
-        <v>534.6</v>
+        <v>703.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>45933.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>246.6</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>45933.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>424.8</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>45932.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>437.4</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="16">
@@ -709,24 +706,24 @@
         <v>23</v>
       </c>
       <c r="C16" s="2">
-        <v>45932.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
       </c>
       <c r="E16" s="3">
-        <v>424.8</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>45932.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
@@ -737,70 +734,70 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>45931.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
       </c>
       <c r="E18" s="3">
-        <v>441.0</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>45931.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>267.3</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>45930.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>170.1</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2">
-        <v>45929.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
       <c r="E21" s="3">
-        <v>522.0</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="22">
@@ -811,41 +808,41 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>45929.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D22" s="3">
         <v>1.0</v>
       </c>
       <c r="E22" s="3">
-        <v>343.8</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>437.4</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D24" s="3">
         <v>1.0</v>
@@ -856,47 +853,47 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2">
-        <v>45928.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>267.3</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
       </c>
       <c r="E26" s="3">
-        <v>343.8</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
@@ -907,64 +904,64 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="2">
-        <v>45926.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>611.1</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="2">
-        <v>45926.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>172.8</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
       </c>
       <c r="E30" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
@@ -975,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="2">
-        <v>45925.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
@@ -992,81 +989,81 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
       </c>
       <c r="E33" s="3">
-        <v>494.1</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="2">
-        <v>45925.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>351.9</v>
+        <v>611.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="2">
-        <v>45924.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>170.1</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="2">
-        <v>45923.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>343.8</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="2">
-        <v>45922.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D37" s="3">
         <v>1.0</v>
@@ -1077,81 +1074,81 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="2">
-        <v>45921.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D38" s="3">
         <v>1.0</v>
       </c>
       <c r="E38" s="3">
-        <v>267.3</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="2">
-        <v>45921.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D39" s="3">
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>178.2</v>
+        <v>494.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="2">
-        <v>45920.0</v>
+        <v>45924.0</v>
       </c>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
       <c r="E40" s="3">
-        <v>437.4</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="2">
-        <v>45915.0</v>
+        <v>45923.0</v>
       </c>
       <c r="D41" s="3">
         <v>1.0</v>
       </c>
       <c r="E41" s="3">
-        <v>437.4</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="2">
-        <v>45915.0</v>
+        <v>45922.0</v>
       </c>
       <c r="D42" s="3">
         <v>1.0</v>
@@ -1162,30 +1159,30 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2">
-        <v>45915.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D43" s="3">
         <v>1.0</v>
       </c>
       <c r="E43" s="3">
-        <v>687.6</v>
+        <v>178.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="2">
-        <v>45914.0</v>
+        <v>45921.0</v>
       </c>
       <c r="D44" s="3">
         <v>1.0</v>
@@ -1196,81 +1193,81 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="2">
-        <v>45912.0</v>
+        <v>45920.0</v>
       </c>
       <c r="D45" s="3">
         <v>1.0</v>
       </c>
       <c r="E45" s="3">
-        <v>343.8</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="2">
-        <v>45912.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D46" s="3">
         <v>1.0</v>
       </c>
       <c r="E46" s="3">
-        <v>343.8</v>
+        <v>687.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="2">
-        <v>45911.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D47" s="3">
         <v>1.0</v>
       </c>
       <c r="E47" s="3">
-        <v>398.7</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="2">
-        <v>45911.0</v>
+        <v>45915.0</v>
       </c>
       <c r="D48" s="3">
         <v>1.0</v>
       </c>
       <c r="E48" s="3">
-        <v>1081.8</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C49" s="2">
-        <v>45911.0</v>
+        <v>45914.0</v>
       </c>
       <c r="D49" s="3">
         <v>1.0</v>
@@ -1280,21 +1277,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="2">
-        <v>45909.0</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>267.3</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>

--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Discount Code</t>
   </si>
@@ -34,33 +34,66 @@
     <t>DZCT</t>
   </si>
   <si>
+    <t>MB498897</t>
+  </si>
+  <si>
+    <t>DZZ9</t>
+  </si>
+  <si>
+    <t>MB498511</t>
+  </si>
+  <si>
+    <t>DZZ2</t>
+  </si>
+  <si>
+    <t>MB498257</t>
+  </si>
+  <si>
+    <t>MB497967</t>
+  </si>
+  <si>
+    <t>MB498046</t>
+  </si>
+  <si>
+    <t>MB497196</t>
+  </si>
+  <si>
+    <t>DZ77</t>
+  </si>
+  <si>
+    <t>MB497034</t>
+  </si>
+  <si>
+    <t>DZ65</t>
+  </si>
+  <si>
+    <t>MB497171</t>
+  </si>
+  <si>
+    <t>MB496903</t>
+  </si>
+  <si>
+    <t>MB496773</t>
+  </si>
+  <si>
     <t>MB496572</t>
   </si>
   <si>
     <t>MB496514</t>
   </si>
   <si>
-    <t>DZ77</t>
-  </si>
-  <si>
     <t>MB496481</t>
   </si>
   <si>
-    <t>DZZ2</t>
+    <t>MB496037</t>
   </si>
   <si>
     <t>MB496052</t>
   </si>
   <si>
-    <t>MB496037</t>
-  </si>
-  <si>
     <t>MB495517</t>
   </si>
   <si>
-    <t>DZ65</t>
-  </si>
-  <si>
     <t>MB495647</t>
   </si>
   <si>
@@ -73,115 +106,79 @@
     <t>MB495050</t>
   </si>
   <si>
+    <t>MB494491</t>
+  </si>
+  <si>
+    <t>MB494936</t>
+  </si>
+  <si>
     <t>MB494715</t>
   </si>
   <si>
-    <t>MB494491</t>
-  </si>
-  <si>
-    <t>MB494936</t>
-  </si>
-  <si>
     <t>MB494311</t>
   </si>
   <si>
     <t>MB494422</t>
   </si>
   <si>
+    <t>MB493162</t>
+  </si>
+  <si>
     <t>MB493466</t>
   </si>
   <si>
-    <t>MB493162</t>
+    <t>MB491923</t>
+  </si>
+  <si>
+    <t>MB492968</t>
   </si>
   <si>
     <t>MB492884</t>
   </si>
   <si>
-    <t>MB491923</t>
-  </si>
-  <si>
-    <t>MB492968</t>
+    <t>MB491721</t>
   </si>
   <si>
     <t>MB491606</t>
   </si>
   <si>
-    <t>MB491721</t>
-  </si>
-  <si>
     <t>MB490643</t>
   </si>
   <si>
+    <t>MB490199</t>
+  </si>
+  <si>
+    <t>MB489618</t>
+  </si>
+  <si>
     <t>MB489648</t>
   </si>
   <si>
-    <t>MB489618</t>
-  </si>
-  <si>
     <t>MB489754</t>
   </si>
   <si>
-    <t>MB490199</t>
-  </si>
-  <si>
     <t>MB489048</t>
   </si>
   <si>
+    <t>MB489154</t>
+  </si>
+  <si>
     <t>MB488679</t>
   </si>
   <si>
-    <t>MB489154</t>
+    <t>MB487207</t>
   </si>
   <si>
     <t>MB487787</t>
   </si>
   <si>
+    <t>MB487512</t>
+  </si>
+  <si>
     <t>MB487316</t>
   </si>
   <si>
-    <t>MB487207</t>
-  </si>
-  <si>
-    <t>MB487512</t>
-  </si>
-  <si>
     <t>MB486945</t>
-  </si>
-  <si>
-    <t>MB486701</t>
-  </si>
-  <si>
-    <t>MB486670</t>
-  </si>
-  <si>
-    <t>MB486223</t>
-  </si>
-  <si>
-    <t>MB485325</t>
-  </si>
-  <si>
-    <t>MB484984</t>
-  </si>
-  <si>
-    <t>MB484513</t>
-  </si>
-  <si>
-    <t>MB484651</t>
-  </si>
-  <si>
-    <t>MB484178</t>
-  </si>
-  <si>
-    <t>MB482292</t>
-  </si>
-  <si>
-    <t>MB482319</t>
-  </si>
-  <si>
-    <t>MB482234</t>
-  </si>
-  <si>
-    <t>MB481818</t>
   </si>
 </sst>
 </file>
@@ -471,10 +468,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="E2" s="3">
-        <v>16897.68</v>
+        <v>16680.78</v>
       </c>
     </row>
     <row r="3">
@@ -485,58 +482,58 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45942.0</v>
+        <v>45954.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>382.5</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>45941.0</v>
+        <v>45951.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <v>297.0</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>45941.0</v>
+        <v>45950.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>297.0</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>45939.0</v>
+        <v>45949.0</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
@@ -547,36 +544,36 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>45939.0</v>
+        <v>45949.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>381.78</v>
+        <v>440.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>45937.0</v>
+        <v>45945.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>486.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="9">
@@ -587,115 +584,115 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45937.0</v>
+        <v>45944.0</v>
       </c>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>636.3</v>
+        <v>537.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>45937.0</v>
+        <v>45944.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>194.4</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>45936.0</v>
+        <v>45943.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>269.1</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>45935.0</v>
+        <v>45942.0</v>
       </c>
       <c r="D12" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" s="3">
-        <v>703.8</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>45935.0</v>
+        <v>45942.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>267.3</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>45935.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>351.9</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>45935.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>495.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="16">
@@ -703,67 +700,67 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>45934.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
       </c>
       <c r="E16" s="3">
-        <v>534.6</v>
+        <v>381.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>45934.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
       </c>
       <c r="E17" s="3">
-        <v>267.3</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>45933.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
       </c>
       <c r="E18" s="3">
-        <v>246.6</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>45933.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>424.8</v>
+        <v>636.3</v>
       </c>
     </row>
     <row r="20">
@@ -771,129 +768,129 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>45932.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>424.8</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>45932.0</v>
+        <v>45936.0</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
       <c r="E21" s="3">
-        <v>267.3</v>
+        <v>269.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
-        <v>45932.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D22" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="3">
-        <v>437.4</v>
+        <v>703.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
-        <v>45931.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>441.0</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2">
-        <v>45931.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
       <c r="E24" s="3">
-        <v>267.3</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
-        <v>45930.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>170.1</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
-        <v>45929.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
       </c>
       <c r="E26" s="3">
-        <v>437.4</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
-        <v>45929.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
@@ -907,44 +904,44 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2">
-        <v>45929.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>522.0</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2">
-        <v>45929.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>343.8</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
-        <v>45928.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
@@ -955,53 +952,53 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2">
-        <v>45928.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>343.8</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2">
-        <v>45928.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>267.3</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2">
-        <v>45926.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
       </c>
       <c r="E33" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="34">
@@ -1009,61 +1006,61 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
-        <v>45926.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>611.1</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
-        <v>45926.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>343.8</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
-        <v>45926.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>172.8</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2">
-        <v>45925.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D37" s="3">
         <v>1.0</v>
@@ -1074,19 +1071,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2">
-        <v>45925.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D38" s="3">
         <v>1.0</v>
       </c>
       <c r="E38" s="3">
-        <v>351.9</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2">
-        <v>45925.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D39" s="3">
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>494.1</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="40">
@@ -1111,129 +1108,129 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2">
-        <v>45924.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
       <c r="E40" s="3">
-        <v>170.1</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2">
-        <v>45923.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D41" s="3">
         <v>1.0</v>
       </c>
       <c r="E41" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2">
-        <v>45922.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
       <c r="E42" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2">
-        <v>45921.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D43" s="3">
         <v>1.0</v>
       </c>
       <c r="E43" s="3">
-        <v>178.2</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2">
-        <v>45921.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D44" s="3">
         <v>1.0</v>
       </c>
       <c r="E44" s="3">
-        <v>267.3</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2">
-        <v>45920.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D45" s="3">
         <v>1.0</v>
       </c>
       <c r="E45" s="3">
-        <v>437.4</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2">
-        <v>45915.0</v>
+        <v>45926.0</v>
       </c>
       <c r="D46" s="3">
         <v>1.0</v>
       </c>
       <c r="E46" s="3">
-        <v>687.6</v>
+        <v>611.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2">
-        <v>45915.0</v>
+        <v>45925.0</v>
       </c>
       <c r="D47" s="3">
         <v>1.0</v>
@@ -1243,38 +1240,18 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="2">
-        <v>45915.0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>437.4</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="2">
-        <v>45914.0</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>267.3</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>

--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Discount Code</t>
   </si>
@@ -34,6 +34,15 @@
     <t>DZCT</t>
   </si>
   <si>
+    <t>MB499520</t>
+  </si>
+  <si>
+    <t>DZZ2</t>
+  </si>
+  <si>
+    <t>MB499205</t>
+  </si>
+  <si>
     <t>MB498897</t>
   </si>
   <si>
@@ -43,9 +52,6 @@
     <t>MB498511</t>
   </si>
   <si>
-    <t>DZZ2</t>
-  </si>
-  <si>
     <t>MB498257</t>
   </si>
   <si>
@@ -79,42 +85,42 @@
     <t>MB496572</t>
   </si>
   <si>
+    <t>MB496481</t>
+  </si>
+  <si>
     <t>MB496514</t>
   </si>
   <si>
-    <t>MB496481</t>
+    <t>MB496052</t>
   </si>
   <si>
     <t>MB496037</t>
   </si>
   <si>
-    <t>MB496052</t>
-  </si>
-  <si>
     <t>MB495517</t>
   </si>
   <si>
+    <t>MB495599</t>
+  </si>
+  <si>
     <t>MB495647</t>
   </si>
   <si>
-    <t>MB495599</t>
-  </si>
-  <si>
     <t>MB495453</t>
   </si>
   <si>
+    <t>MB494715</t>
+  </si>
+  <si>
     <t>MB495050</t>
   </si>
   <si>
+    <t>MB494936</t>
+  </si>
+  <si>
     <t>MB494491</t>
   </si>
   <si>
-    <t>MB494936</t>
-  </si>
-  <si>
-    <t>MB494715</t>
-  </si>
-  <si>
     <t>MB494311</t>
   </si>
   <si>
@@ -130,55 +136,40 @@
     <t>MB491923</t>
   </si>
   <si>
+    <t>MB492884</t>
+  </si>
+  <si>
     <t>MB492968</t>
   </si>
   <si>
-    <t>MB492884</t>
+    <t>MB491606</t>
   </si>
   <si>
     <t>MB491721</t>
   </si>
   <si>
-    <t>MB491606</t>
-  </si>
-  <si>
     <t>MB490643</t>
   </si>
   <si>
+    <t>MB489618</t>
+  </si>
+  <si>
     <t>MB490199</t>
   </si>
   <si>
-    <t>MB489618</t>
+    <t>MB489754</t>
   </si>
   <si>
     <t>MB489648</t>
   </si>
   <si>
-    <t>MB489754</t>
-  </si>
-  <si>
     <t>MB489048</t>
   </si>
   <si>
+    <t>MB488679</t>
+  </si>
+  <si>
     <t>MB489154</t>
-  </si>
-  <si>
-    <t>MB488679</t>
-  </si>
-  <si>
-    <t>MB487207</t>
-  </si>
-  <si>
-    <t>MB487787</t>
-  </si>
-  <si>
-    <t>MB487512</t>
-  </si>
-  <si>
-    <t>MB487316</t>
-  </si>
-  <si>
-    <t>MB486945</t>
   </si>
 </sst>
 </file>
@@ -468,10 +459,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="E2" s="3">
-        <v>16680.78</v>
+        <v>15621.48</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45954.0</v>
+        <v>45957.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
       <c r="E3" s="3">
-        <v>711.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>45951.0</v>
+        <v>45955.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
@@ -510,64 +501,64 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="2">
-        <v>45950.0</v>
+        <v>45954.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>334.8</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>45949.0</v>
+        <v>45951.0</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
       </c>
       <c r="E6" s="3">
-        <v>297.0</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>45949.0</v>
+        <v>45950.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>440.1</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>45945.0</v>
+        <v>45949.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
@@ -578,98 +569,98 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="2">
-        <v>45944.0</v>
+        <v>45949.0</v>
       </c>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>537.3</v>
+        <v>440.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>45944.0</v>
+        <v>45945.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>359.1</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>45943.0</v>
+        <v>45944.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>297.0</v>
+        <v>537.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>45942.0</v>
+        <v>45944.0</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
       </c>
       <c r="E12" s="3">
-        <v>297.0</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>45942.0</v>
+        <v>45943.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>382.5</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>45941.0</v>
+        <v>45942.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
@@ -680,47 +671,47 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>45941.0</v>
+        <v>45942.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>297.0</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>45939.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
       </c>
       <c r="E16" s="3">
-        <v>381.78</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>45939.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
@@ -731,41 +722,41 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>45937.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
       </c>
       <c r="E18" s="3">
-        <v>486.0</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>45937.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>636.3</v>
+        <v>381.78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
@@ -777,7 +768,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>194.4</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="21">
@@ -788,52 +779,52 @@
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>45936.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
       <c r="E21" s="3">
-        <v>269.1</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D22" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" s="3">
-        <v>703.8</v>
+        <v>636.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
-        <v>45935.0</v>
+        <v>45936.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>351.9</v>
+        <v>269.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>32</v>
@@ -845,12 +836,12 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="3">
-        <v>495.0</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
@@ -859,44 +850,44 @@
         <v>45935.0</v>
       </c>
       <c r="D25" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" s="3">
-        <v>267.3</v>
+        <v>703.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D26" s="3">
         <v>1.0</v>
       </c>
       <c r="E26" s="3">
-        <v>534.6</v>
+        <v>495.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
       <c r="E27" s="3">
-        <v>267.3</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="28">
@@ -907,69 +898,69 @@
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>424.8</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
       <c r="E29" s="3">
-        <v>246.6</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
       </c>
       <c r="E30" s="3">
-        <v>267.3</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>437.4</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>40</v>
@@ -981,24 +972,24 @@
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>424.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
       </c>
       <c r="E33" s="3">
-        <v>267.3</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="34">
@@ -1009,69 +1000,69 @@
         <v>42</v>
       </c>
       <c r="C34" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>441.0</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <v>45930.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>170.1</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2">
-        <v>45929.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D37" s="3">
         <v>1.0</v>
       </c>
       <c r="E37" s="3">
-        <v>267.3</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -1083,12 +1074,12 @@
         <v>1.0</v>
       </c>
       <c r="E38" s="3">
-        <v>437.4</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>47</v>
@@ -1100,7 +1091,7 @@
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>522.0</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="40">
@@ -1111,35 +1102,35 @@
         <v>48</v>
       </c>
       <c r="C40" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
       <c r="E40" s="3">
-        <v>267.3</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D41" s="3">
         <v>1.0</v>
       </c>
       <c r="E41" s="3">
-        <v>267.3</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
@@ -1151,18 +1142,18 @@
         <v>1.0</v>
       </c>
       <c r="E42" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D43" s="3">
         <v>1.0</v>
@@ -1173,71 +1164,41 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="2">
-        <v>45926.0</v>
+        <v>45928.0</v>
       </c>
       <c r="D44" s="3">
         <v>1.0</v>
       </c>
       <c r="E44" s="3">
-        <v>343.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="2">
-        <v>45926.0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>172.8</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="2">
-        <v>45926.0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>611.1</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="2">
-        <v>45925.0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>267.3</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>

--- a/Updates/Input data/DigiZag New 30-days (4).xlsx
+++ b/Updates/Input data/DigiZag New 30-days (4).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Discount Code</t>
   </si>
@@ -31,12 +31,21 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>DZ65</t>
+  </si>
+  <si>
+    <t>MB499784</t>
+  </si>
+  <si>
     <t>DZCT</t>
   </si>
   <si>
     <t>MB499520</t>
   </si>
   <si>
+    <t>MB499680</t>
+  </si>
+  <si>
     <t>DZZ2</t>
   </si>
   <si>
@@ -55,48 +64,45 @@
     <t>MB498257</t>
   </si>
   <si>
+    <t>MB498046</t>
+  </si>
+  <si>
     <t>MB497967</t>
   </si>
   <si>
-    <t>MB498046</t>
-  </si>
-  <si>
     <t>MB497196</t>
   </si>
   <si>
+    <t>MB497171</t>
+  </si>
+  <si>
     <t>DZ77</t>
   </si>
   <si>
     <t>MB497034</t>
   </si>
   <si>
-    <t>DZ65</t>
-  </si>
-  <si>
-    <t>MB497171</t>
-  </si>
-  <si>
     <t>MB496903</t>
   </si>
   <si>
+    <t>MB496572</t>
+  </si>
+  <si>
     <t>MB496773</t>
   </si>
   <si>
-    <t>MB496572</t>
+    <t>MB496514</t>
   </si>
   <si>
     <t>MB496481</t>
   </si>
   <si>
-    <t>MB496514</t>
+    <t>MB496037</t>
   </si>
   <si>
     <t>MB496052</t>
   </si>
   <si>
-    <t>MB496037</t>
-  </si>
-  <si>
     <t>MB495517</t>
   </si>
   <si>
@@ -109,39 +115,39 @@
     <t>MB495453</t>
   </si>
   <si>
+    <t>MB494936</t>
+  </si>
+  <si>
+    <t>MB495050</t>
+  </si>
+  <si>
+    <t>MB494491</t>
+  </si>
+  <si>
     <t>MB494715</t>
   </si>
   <si>
-    <t>MB495050</t>
-  </si>
-  <si>
-    <t>MB494936</t>
-  </si>
-  <si>
-    <t>MB494491</t>
+    <t>MB494422</t>
   </si>
   <si>
     <t>MB494311</t>
   </si>
   <si>
-    <t>MB494422</t>
+    <t>MB493466</t>
   </si>
   <si>
     <t>MB493162</t>
   </si>
   <si>
-    <t>MB493466</t>
-  </si>
-  <si>
     <t>MB491923</t>
   </si>
   <si>
+    <t>MB492968</t>
+  </si>
+  <si>
     <t>MB492884</t>
   </si>
   <si>
-    <t>MB492968</t>
-  </si>
-  <si>
     <t>MB491606</t>
   </si>
   <si>
@@ -151,22 +157,19 @@
     <t>MB490643</t>
   </si>
   <si>
+    <t>MB490199</t>
+  </si>
+  <si>
+    <t>MB489648</t>
+  </si>
+  <si>
     <t>MB489618</t>
   </si>
   <si>
-    <t>MB490199</t>
-  </si>
-  <si>
     <t>MB489754</t>
   </si>
   <si>
-    <t>MB489648</t>
-  </si>
-  <si>
     <t>MB489048</t>
-  </si>
-  <si>
-    <t>MB488679</t>
   </si>
   <si>
     <t>MB489154</t>
@@ -459,10 +462,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="E2" s="3">
-        <v>15621.48</v>
+        <v>16047.18</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>45957.0</v>
+        <v>45958.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
@@ -490,30 +493,30 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>45955.0</v>
+        <v>45957.0</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <v>382.5</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>45954.0</v>
+        <v>45957.0</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
       <c r="E5" s="3">
-        <v>711.0</v>
+        <v>472.5</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>45951.0</v>
+        <v>45955.0</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
@@ -541,177 +544,177 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>45950.0</v>
+        <v>45954.0</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
       <c r="E7" s="3">
-        <v>334.8</v>
+        <v>711.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
-        <v>45949.0</v>
+        <v>45951.0</v>
       </c>
       <c r="D8" s="3">
         <v>1.0</v>
       </c>
       <c r="E8" s="3">
-        <v>297.0</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>45949.0</v>
+        <v>45950.0</v>
       </c>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
       <c r="E9" s="3">
-        <v>440.1</v>
+        <v>334.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>45945.0</v>
+        <v>45949.0</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
       </c>
       <c r="E10" s="3">
-        <v>297.0</v>
+        <v>440.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>45944.0</v>
+        <v>45949.0</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
       </c>
       <c r="E11" s="3">
-        <v>537.3</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="2">
-        <v>45944.0</v>
+        <v>45945.0</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
       </c>
       <c r="E12" s="3">
-        <v>359.1</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>45943.0</v>
+        <v>45944.0</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
       <c r="E13" s="3">
-        <v>297.0</v>
+        <v>359.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>45942.0</v>
+        <v>45944.0</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
       </c>
       <c r="E14" s="3">
-        <v>297.0</v>
+        <v>537.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>45942.0</v>
+        <v>45943.0</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
       <c r="E15" s="3">
-        <v>382.5</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>45941.0</v>
+        <v>45942.0</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
       </c>
       <c r="E16" s="3">
-        <v>297.0</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <v>45941.0</v>
+        <v>45942.0</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
@@ -728,7 +731,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>45939.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
@@ -739,58 +742,58 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>45939.0</v>
+        <v>45941.0</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
       </c>
       <c r="E19" s="3">
-        <v>381.78</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>45937.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D20" s="3">
         <v>1.0</v>
       </c>
       <c r="E20" s="3">
-        <v>486.0</v>
+        <v>381.78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>45937.0</v>
+        <v>45939.0</v>
       </c>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
       <c r="E21" s="3">
-        <v>194.4</v>
+        <v>297.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -802,63 +805,63 @@
         <v>1.0</v>
       </c>
       <c r="E22" s="3">
-        <v>636.3</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
-        <v>45936.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
       </c>
       <c r="E23" s="3">
-        <v>269.1</v>
+        <v>194.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
-        <v>45935.0</v>
+        <v>45937.0</v>
       </c>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
       <c r="E24" s="3">
-        <v>267.3</v>
+        <v>636.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
-        <v>45935.0</v>
+        <v>45936.0</v>
       </c>
       <c r="D25" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="3">
-        <v>703.8</v>
+        <v>269.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>35</v>
@@ -884,38 +887,38 @@
         <v>45935.0</v>
       </c>
       <c r="D27" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" s="3">
-        <v>351.9</v>
+        <v>703.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
       <c r="E28" s="3">
-        <v>534.6</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="D29" s="3">
         <v>1.0</v>
@@ -926,64 +929,64 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D30" s="3">
         <v>1.0</v>
       </c>
       <c r="E30" s="3">
-        <v>424.8</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
       <c r="E31" s="3">
-        <v>246.6</v>
+        <v>534.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D32" s="3">
         <v>1.0</v>
       </c>
       <c r="E32" s="3">
-        <v>267.3</v>
+        <v>246.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="D33" s="3">
         <v>1.0</v>
@@ -994,7 +997,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>42</v>
@@ -1006,24 +1009,24 @@
         <v>1.0</v>
       </c>
       <c r="E34" s="3">
-        <v>437.4</v>
+        <v>267.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D35" s="3">
         <v>1.0</v>
       </c>
       <c r="E35" s="3">
-        <v>441.0</v>
+        <v>437.4</v>
       </c>
     </row>
     <row r="36">
@@ -1034,13 +1037,13 @@
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
       <c r="E36" s="3">
-        <v>267.3</v>
+        <v>424.8</v>
       </c>
     </row>
     <row r="37">
@@ -1051,13 +1054,13 @@
         <v>45</v>
       </c>
       <c r="C37" s="2">
-        <v>45930.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D37" s="3">
         <v>1.0</v>
       </c>
       <c r="E37" s="3">
-        <v>170.1</v>
+        <v>441.0</v>
       </c>
     </row>
     <row r="38">
@@ -1068,7 +1071,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="2">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="D38" s="3">
         <v>1.0</v>
@@ -1079,19 +1082,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="2">
-        <v>45929.0</v>
+        <v>45930.0</v>
       </c>
       <c r="D39" s="3">
         <v>1.0</v>
       </c>
       <c r="E39" s="3">
-        <v>343.8</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="40">
@@ -1108,12 +1111,12 @@
         <v>1.0</v>
       </c>
       <c r="E40" s="3">
-        <v>522.0</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>49</v>
@@ -1130,13 +1133,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D42" s="3">
         <v>1.0</v>
@@ -1153,13 +1156,13 @@
         <v>51</v>
       </c>
       <c r="C43" s="2">
-        <v>45928.0</v>
+        <v>45929.0</v>
       </c>
       <c r="D43" s="3">
         <v>1.0</v>
       </c>
       <c r="E43" s="3">
-        <v>343.8</v>
+        <v>522.0</v>
       </c>
     </row>
     <row r="44">
@@ -1180,11 +1183,21 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45928.0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>267.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
